--- a/data/trans_dic/DC_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/DC_R-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>34,18; 42,12</t>
+          <t>34,3; 42,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>56,34; 61,85</t>
+          <t>56,3; 62,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>48,35; 53,12</t>
+          <t>48,46; 53,21</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,95; 23,35</t>
+          <t>19,1; 23,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,93; 50,29</t>
+          <t>34,91; 48,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,77; 37,37</t>
+          <t>27,88; 36,46</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,1; 19,87</t>
+          <t>14,21; 20,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,77; 37,41</t>
+          <t>30,75; 37,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,62; 28,06</t>
+          <t>23,49; 27,99</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,47; 24,69</t>
+          <t>21,33; 24,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,97; 48,75</t>
+          <t>40,1; 48,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,8; 37,16</t>
+          <t>31,85; 37,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DC_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/DC_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>34,3; 42,01</t>
+          <t>34,18; 42,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>56,3; 62,16</t>
+          <t>56,34; 61,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>48,46; 53,21</t>
+          <t>48,35; 53,12</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,1; 23,35</t>
+          <t>18,95; 23,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,91; 48,54</t>
+          <t>34,93; 50,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,88; 36,46</t>
+          <t>27,77; 37,37</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,21; 20,22</t>
+          <t>14,1; 19,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,75; 37,51</t>
+          <t>30,77; 37,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,49; 27,99</t>
+          <t>23,62; 28,06</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,33; 24,76</t>
+          <t>21,47; 24,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>40,1; 48,28</t>
+          <t>39,97; 48,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,85; 37,52</t>
+          <t>31,8; 37,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DC_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/DC_R-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>38,04%</t>
+          <t>37,36%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>59,1%</t>
+          <t>58,84%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>50,82%</t>
+          <t>50,13%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>34,18; 42,12</t>
+          <t>33,5; 41,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>56,34; 61,85</t>
+          <t>56,07; 61,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>48,35; 53,12</t>
+          <t>47,71; 52,49</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>19,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>38,88%</t>
+          <t>43,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30,29%</t>
+          <t>31,02%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,95; 23,35</t>
+          <t>13,43; 22,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,93; 50,29</t>
+          <t>35,51; 60,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,77; 37,37</t>
+          <t>25,97; 41,76</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>33,83%</t>
+          <t>33,75%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25,71%</t>
+          <t>25,47%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,1; 19,87</t>
+          <t>14,04; 19,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,77; 37,41</t>
+          <t>30,74; 37,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,62; 28,06</t>
+          <t>23,35; 27,78</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>42,38%</t>
+          <t>44,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,35%</t>
+          <t>33,41%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,47; 24,69</t>
+          <t>16,76; 23,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,97; 48,75</t>
+          <t>40,26; 56,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,8; 37,16</t>
+          <t>29,89; 39,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DC_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/DC_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,5; 41,4</t>
+          <t>33,12; 41,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>56,07; 61,49</t>
+          <t>56,03; 61,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>47,71; 52,49</t>
+          <t>47,71; 52,3</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,43; 22,33</t>
+          <t>13,88; 22,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,51; 60,46</t>
+          <t>35,41; 57,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,97; 41,76</t>
+          <t>26,07; 42,22</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,04; 19,92</t>
+          <t>14,07; 19,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,74; 37,42</t>
+          <t>30,49; 36,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,35; 27,78</t>
+          <t>23,18; 27,8</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,76; 23,72</t>
+          <t>16,73; 23,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>40,26; 56,3</t>
+          <t>40,33; 55,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,89; 39,91</t>
+          <t>29,81; 39,83</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolor crónico (incluye Otro dolor crónico)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>868</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1148</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>192378</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>444551</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>636929</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>170546; 212187</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>423347; 465882</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>606150; 664414</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1112</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1598</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>441162</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>963255</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1404417</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>317942; 511254</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>792327; 1284690</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1180441; 1911631</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>110053</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>222877</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>332930</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>90998; 128446</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>201344; 243419</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>303040; 363431</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2320</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3212</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>743594</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1630683</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2374277</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>577361; 821662</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1473531; 2011005</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2118321; 2830440</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>